--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC14-MINIFRAGMENTOS 1.5-2.0-2.4-2.7.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC14-MINIFRAGMENTOS 1.5-2.0-2.4-2.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89A4A7-F75B-409E-AFF6-0CA38F08FF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864136B1-75D0-470E-B91F-AC92F7C53028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="285" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="3" r:id="rId1"/>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1733,14 +1722,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2138,40 +2127,40 @@
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2195,8 +2184,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2293,7 +2282,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2317,7 +2306,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2356,11 +2345,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2397,9 +2389,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -2805,8 +2794,8 @@
   </sheetPr>
   <dimension ref="A1:H347"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A231" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="G231" sqref="G231"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2834,13 +2823,13 @@
     <row r="2" spans="1:8" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>385</v>
       </c>
-      <c r="E2" s="82"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="1"/>
@@ -2848,7 +2837,7 @@
     <row r="3" spans="1:8" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
-      <c r="C3" s="80"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="44" t="s">
         <v>386</v>
       </c>
@@ -2860,13 +2849,13 @@
     <row r="4" spans="1:8" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="86" t="s">
         <v>388</v>
       </c>
-      <c r="E4" s="86"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="1"/>
@@ -2874,11 +2863,11 @@
     <row r="5" spans="1:8" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="75" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="1"/>
@@ -2900,7 +2889,7 @@
       <c r="B7" s="48"/>
       <c r="C7" s="49">
         <f ca="1">NOW()</f>
-        <v>45392.671994444441</v>
+        <v>45401.647919097224</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>22</v>
@@ -2949,10 +2938,10 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="54" t="s">
         <v>393</v>
       </c>
@@ -7512,7 +7501,7 @@
       <c r="C229" s="25"/>
       <c r="D229" s="25"/>
       <c r="E229" s="25"/>
-      <c r="F229" s="87" t="s">
+      <c r="F229" s="75" t="s">
         <v>35</v>
       </c>
       <c r="G229" s="11">
@@ -7526,7 +7515,7 @@
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="87" t="s">
+      <c r="F230" s="75" t="s">
         <v>527</v>
       </c>
       <c r="G230" s="11">
@@ -7540,7 +7529,7 @@
       <c r="C231" s="9"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="87" t="s">
+      <c r="F231" s="75" t="s">
         <v>19</v>
       </c>
       <c r="G231" s="11">
